--- a/GBP Bonds/Master List of Bonds/Transportation.xlsx
+++ b/GBP Bonds/Master List of Bonds/Transportation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Master List of Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F18F7-5962-4977-9718-8608A79A84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3A80C6-8EFF-4638-8A4C-7C009DE7EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="132">
   <si>
     <t>Issuer</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>US030119754</t>
+  </si>
+  <si>
+    <t>LHR Airports Ltd</t>
+  </si>
+  <si>
+    <t>XS0089000516</t>
+  </si>
+  <si>
+    <t>XS0063290711</t>
+  </si>
+  <si>
+    <t>XS0030487051</t>
+  </si>
+  <si>
+    <t>XS0138797021</t>
+  </si>
+  <si>
+    <t>XS0142079028</t>
+  </si>
+  <si>
+    <t>XS0181263202</t>
+  </si>
+  <si>
+    <t>XS0243520722</t>
   </si>
 </sst>
 </file>
@@ -775,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="AO9" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2662,6 +2686,125 @@
         <v>76</v>
       </c>
     </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <v>6.375</v>
+      </c>
+      <c r="D13" s="2">
+        <v>46969</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36011</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>8.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44284</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35095</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>11.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42460</v>
+      </c>
+      <c r="E15" s="2">
+        <v>33297</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>5.75</v>
+      </c>
+      <c r="D16" s="2">
+        <v>48192</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37235</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>5.75</v>
+      </c>
+      <c r="D17" s="2">
+        <v>48192</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37235</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>5.75</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41605</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37952</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>5.125</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44972</v>
+      </c>
+      <c r="E19" s="2">
+        <v>38763</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
